--- a/data/trans_dic/P6902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,65%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>18,48; 35,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>22,33; 47,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>28,29; 57,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>31,6; 70,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>13,53; 42,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>32,37; 66,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>10,59; 50,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>16,07; 66,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>19,95; 34,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>31,63; 51,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>27,13; 50,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>28,96; 62,79</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,22%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>35,4; 47,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>38,61; 52,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>29,87; 43,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>50,1; 62,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>39,75; 58,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>45,2; 62,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>49,41; 67,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>47,91; 64,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>38,1; 48,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>42,63; 54,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>38,9; 49,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>52,09; 62,13</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>65,9; 86,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>57,9; 82,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>55,15; 78,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>75,65; 93,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>56,39; 80,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>55,6; 84,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>60,37; 81,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>81,38; 92,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>65,31; 80,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>61,94; 81,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>61,53; 78,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>81,29; 91,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>38,46; 48,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>41,49; 52,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>37,71; 48,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,02; 67,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>44,12; 57,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>49,47; 63,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>53,42; 66,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>58,09; 70,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>41,73; 49,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>46,36; 55,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>45,67; 54,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>59,62; 67,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,65%</t>
+          <t>48,1%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,6; 70,85</t>
+          <t>32,09; 71,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 66,18</t>
+          <t>19,28; 65,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,96; 62,79</t>
+          <t>32,21; 62,5</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,99%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>53,76%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,1; 62,93</t>
+          <t>49,41; 62,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,91; 64,01</t>
+          <t>32,19; 62,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,09; 62,13</t>
+          <t>40,92; 59,46</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>87,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>87,44%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,65; 93,85</t>
+          <t>75,67; 93,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,38; 92,35</t>
+          <t>81,28; 92,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>81,29; 91,38</t>
+          <t>81,18; 91,31</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,01%</t>
+          <t>60,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>61,11%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,02; 67,34</t>
+          <t>55,61; 67,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,09; 70,29</t>
+          <t>43,34; 68,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,62; 67,81</t>
+          <t>52,0; 66,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6902-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,48; 35,36</t>
+          <t>17,94; 35,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 47,31</t>
+          <t>23,03; 46,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,29; 57,12</t>
+          <t>27,96; 56,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,09; 71,0</t>
+          <t>32,6; 68,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 42,89</t>
+          <t>13,59; 42,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,37; 66,85</t>
+          <t>34,95; 67,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 50,4</t>
+          <t>10,47; 50,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,28; 65,37</t>
+          <t>20,12; 65,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,95; 34,0</t>
+          <t>19,36; 34,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,63; 51,67</t>
+          <t>31,32; 52,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,13; 50,51</t>
+          <t>26,83; 50,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,21; 62,5</t>
+          <t>31,57; 62,55</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,4; 47,82</t>
+          <t>35,21; 47,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,61; 52,54</t>
+          <t>37,84; 52,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,87; 43,36</t>
+          <t>30,11; 42,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,41; 62,25</t>
+          <t>48,03; 62,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,75; 58,28</t>
+          <t>40,27; 58,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,2; 62,54</t>
+          <t>45,06; 62,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,41; 67,16</t>
+          <t>50,16; 67,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,19; 62,07</t>
+          <t>30,88; 61,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,1; 48,03</t>
+          <t>38,81; 48,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,63; 54,32</t>
+          <t>43,29; 54,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,9; 49,47</t>
+          <t>38,95; 49,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,92; 59,46</t>
+          <t>41,03; 59,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,9; 86,04</t>
+          <t>65,81; 86,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,9; 82,8</t>
+          <t>56,57; 83,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,15; 78,84</t>
+          <t>55,92; 79,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,67; 93,85</t>
+          <t>75,18; 93,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,39; 80,57</t>
+          <t>56,84; 79,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,6; 84,91</t>
+          <t>56,47; 84,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,37; 81,78</t>
+          <t>60,13; 82,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,28; 92,26</t>
+          <t>81,59; 92,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,31; 80,89</t>
+          <t>65,53; 80,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>61,94; 81,42</t>
+          <t>62,21; 80,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>61,53; 78,29</t>
+          <t>61,61; 77,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>81,18; 91,31</t>
+          <t>81,79; 91,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,46; 48,43</t>
+          <t>38,71; 48,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,49; 52,83</t>
+          <t>41,84; 52,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,71; 48,85</t>
+          <t>37,0; 48,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,61; 67,03</t>
+          <t>56,23; 67,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,12; 57,5</t>
+          <t>45,02; 58,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,47; 63,88</t>
+          <t>50,04; 64,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,42; 66,65</t>
+          <t>53,61; 67,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,34; 68,64</t>
+          <t>45,01; 68,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,73; 49,52</t>
+          <t>42,18; 49,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46,36; 55,56</t>
+          <t>46,63; 55,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 54,17</t>
+          <t>45,16; 54,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,0; 66,04</t>
+          <t>51,37; 65,87</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente nervioso y estresado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29299</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19335</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23174</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14718</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10103</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19438</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11354</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39401</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38773</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28059</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26072</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19963; 39358</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12967; 26249</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15542; 31554</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9523; 20035</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5106; 15786</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13260; 25531</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1888; 9022</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5027; 16451</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28818; 51351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29524; 49477</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19745; 36968</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17110; 33901</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118636</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>100057</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83831</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>133548</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58559</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>71100</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>73186</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>123394</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>177194</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>171158</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>157016</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>256941</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>101022; 134913</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>83903; 115774</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69067; 97948</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>115066; 149398</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47749; 69874</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59287; 82461</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>62481; 83505</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>73607; 147688</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>157397; 197733</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>152931; 191698</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>137879; 176167</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>196091; 286539</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>57127</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32979</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43480</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60515</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44357</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33648</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52963</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>79575</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>101484</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66627</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96443</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>140089</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48748; 63735</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26074; 38479</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35525; 50397</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52266; 64924</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36371; 51046</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26158; 39347</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44322; 60734</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>73995; 83848</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>90475; 111137</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57492; 74556</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84546; 106142</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>131052; 147118</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>205061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>152371</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>150484</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>208781</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>113018</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>124186</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>131034</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>214322</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>318079</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>276558</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>281518</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>423103</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>182842; 226766</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>135610; 169862</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>128939; 170316</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>190246; 228055</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>99095; 129325</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>108010; 138217</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>115947; 145027</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>159343; 242634</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>292085; 343979</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>251774; 299801</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>255048; 305583</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>355661; 456039</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>